--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori4/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori4/67/correct_predictions_67.xlsx
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1307,31 +1307,31 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Extra payload detected . Max altitude and distance set . Fly with caution .</t>
+          <t>Compass Stuck . Restart Aircraft . Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1346,22 +1346,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1376,52 +1376,52 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Max altitude and distance set</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>Extra payload detected . Max altitude and distance set . Fly with caution .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Check the USB connection with aircraft</t>
+          <t>Max altitude and distance set</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1436,22 +1436,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Check the USB connection with aircraft</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1466,42 +1466,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5-14</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori4/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori4/67/correct_predictions_67.xlsx
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1307,31 +1307,31 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Compass Stuck . Restart Aircraft . Contact DJI Support if this persists .</t>
+          <t>Extra payload detected . Max altitude and distance set . Fly with caution .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1346,22 +1346,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1376,52 +1376,52 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Max altitude and distance set</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Extra payload detected . Max altitude and distance set . Fly with caution .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Max altitude and distance set</t>
+          <t>Check the USB connection with aircraft</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1436,22 +1436,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Check the USB connection with aircraft</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1466,42 +1466,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>5-14</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
